--- a/2804-Model/Design Input File.xlsx
+++ b/2804-Model/Design Input File.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://o365coloradoedu-my.sharepoint.com/personal/joma1794_colorado_edu/Documents/Course Materials/ASEN 2804/ASEN 2804 Spring 24/Spring 24 Models/UpdatedVersions_Tee_1-17-2024/ASEN2804_Student_Code_Template_12Jan24/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bloss\OneDrive\Documents\MATLAB\ASEN2804\2804-Model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="262" documentId="8_{7EE61222-4046-4270-BC24-33C0747AF4F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BCF477E2-E65D-42AA-87FD-AFF108266861}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49821B44-7448-41FD-98CB-C1F42AF7C377}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="15196" xr2:uid="{904FC4B5-3CDE-421B-8E98-23A2C72E8C1E}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="13020" activeTab="2" xr2:uid="{904FC4B5-3CDE-421B-8E98-23A2C72E8C1E}"/>
   </bookViews>
   <sheets>
     <sheet name="Variable Reference" sheetId="8" r:id="rId1"/>
@@ -2373,9 +2373,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2413,7 +2413,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -2519,7 +2519,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2661,7 +2661,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2671,20 +2671,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{880E5C65-4E84-4A1F-BBC6-77D4F9B2D0D9}">
   <dimension ref="A1:D70"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A9" workbookViewId="0">
       <selection activeCell="A59" sqref="A59:XFD59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.46484375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.33203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="104.46484375" style="6" customWidth="1"/>
-    <col min="5" max="5" width="24.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.36328125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="104.453125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="24.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="12" t="s">
         <v>195</v>
       </c>
@@ -2698,7 +2698,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="7" t="s">
         <v>196</v>
       </c>
@@ -2713,7 +2713,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="7" t="s">
         <v>196</v>
       </c>
@@ -2727,7 +2727,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A4" s="7" t="s">
         <v>196</v>
       </c>
@@ -2741,7 +2741,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="7" t="s">
         <v>196</v>
       </c>
@@ -2755,7 +2755,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="7" t="s">
         <v>196</v>
       </c>
@@ -2769,7 +2769,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="7" t="s">
         <v>196</v>
       </c>
@@ -2783,7 +2783,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="7" t="s">
         <v>196</v>
       </c>
@@ -2797,7 +2797,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A9" s="7" t="s">
         <v>196</v>
       </c>
@@ -2811,7 +2811,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="7" t="s">
         <v>196</v>
       </c>
@@ -2825,7 +2825,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A11" s="7" t="s">
         <v>196</v>
       </c>
@@ -2839,7 +2839,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A12" s="7" t="s">
         <v>196</v>
       </c>
@@ -2853,7 +2853,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A13" s="7" t="s">
         <v>196</v>
       </c>
@@ -2867,7 +2867,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" s="7" t="s">
         <v>196</v>
       </c>
@@ -2881,7 +2881,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" s="7" t="s">
         <v>196</v>
       </c>
@@ -2895,7 +2895,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" s="7" t="s">
         <v>196</v>
       </c>
@@ -2909,7 +2909,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" s="7" t="s">
         <v>196</v>
       </c>
@@ -2923,7 +2923,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A18" s="7" t="s">
         <v>196</v>
       </c>
@@ -2937,7 +2937,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="7" t="s">
         <v>196</v>
       </c>
@@ -2951,7 +2951,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A20" s="7" t="s">
         <v>196</v>
       </c>
@@ -2965,7 +2965,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" s="7" t="s">
         <v>196</v>
       </c>
@@ -2979,7 +2979,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A22" s="7" t="s">
         <v>196</v>
       </c>
@@ -2993,7 +2993,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" s="7" t="s">
         <v>196</v>
       </c>
@@ -3007,7 +3007,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="7" t="s">
         <v>196</v>
       </c>
@@ -3021,7 +3021,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A25" s="7" t="s">
         <v>196</v>
       </c>
@@ -3035,7 +3035,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A26" s="7" t="s">
         <v>196</v>
       </c>
@@ -3049,7 +3049,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A27" s="7" t="s">
         <v>196</v>
       </c>
@@ -3063,7 +3063,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" s="7" t="s">
         <v>196</v>
       </c>
@@ -3077,7 +3077,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A29" s="7" t="s">
         <v>196</v>
       </c>
@@ -3091,7 +3091,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" s="7" t="s">
         <v>196</v>
       </c>
@@ -3105,7 +3105,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A31" s="7" t="s">
         <v>196</v>
       </c>
@@ -3119,7 +3119,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A32" s="7" t="s">
         <v>196</v>
       </c>
@@ -3133,7 +3133,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A33" s="7" t="s">
         <v>196</v>
       </c>
@@ -3147,7 +3147,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A34" s="7" t="s">
         <v>196</v>
       </c>
@@ -3161,7 +3161,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" s="7" t="s">
         <v>196</v>
       </c>
@@ -3175,7 +3175,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A36" s="7" t="s">
         <v>196</v>
       </c>
@@ -3189,7 +3189,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37" s="7" t="s">
         <v>196</v>
       </c>
@@ -3203,7 +3203,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A38" s="7" t="s">
         <v>196</v>
       </c>
@@ -3217,7 +3217,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A39" s="7" t="s">
         <v>196</v>
       </c>
@@ -3231,7 +3231,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A40" s="7" t="s">
         <v>196</v>
       </c>
@@ -3245,7 +3245,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A41" s="7" t="s">
         <v>196</v>
       </c>
@@ -3259,7 +3259,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42" s="7" t="s">
         <v>196</v>
       </c>
@@ -3273,7 +3273,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A43" s="7" t="s">
         <v>196</v>
       </c>
@@ -3287,7 +3287,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44" s="7" t="s">
         <v>196</v>
       </c>
@@ -3301,7 +3301,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A45" s="7" t="s">
         <v>196</v>
       </c>
@@ -3315,7 +3315,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A46" s="7" t="s">
         <v>196</v>
       </c>
@@ -3329,7 +3329,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47" s="7" t="s">
         <v>196</v>
       </c>
@@ -3343,7 +3343,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A48" s="7" t="s">
         <v>196</v>
       </c>
@@ -3357,7 +3357,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A49" s="7" t="s">
         <v>196</v>
       </c>
@@ -3371,7 +3371,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A50" s="7" t="s">
         <v>196</v>
       </c>
@@ -3385,7 +3385,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A51" s="7" t="s">
         <v>196</v>
       </c>
@@ -3399,7 +3399,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A52" s="7" t="s">
         <v>196</v>
       </c>
@@ -3413,7 +3413,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A53" s="7" t="s">
         <v>197</v>
       </c>
@@ -3427,7 +3427,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A54" s="7" t="s">
         <v>197</v>
       </c>
@@ -3441,7 +3441,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A55" s="7" t="s">
         <v>197</v>
       </c>
@@ -3455,7 +3455,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A56" s="7" t="s">
         <v>197</v>
       </c>
@@ -3469,7 +3469,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A57" s="7" t="s">
         <v>197</v>
       </c>
@@ -3483,7 +3483,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A58" s="7" t="s">
         <v>197</v>
       </c>
@@ -3497,7 +3497,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A59" s="7" t="s">
         <v>197</v>
       </c>
@@ -3511,7 +3511,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A60" s="7" t="s">
         <v>197</v>
       </c>
@@ -3525,7 +3525,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A61" s="7" t="s">
         <v>197</v>
       </c>
@@ -3539,7 +3539,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A62" s="7" t="s">
         <v>197</v>
       </c>
@@ -3553,7 +3553,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A63" s="7" t="s">
         <v>197</v>
       </c>
@@ -3567,7 +3567,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A64" s="7" t="s">
         <v>197</v>
       </c>
@@ -3581,7 +3581,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A65" s="7" t="s">
         <v>197</v>
       </c>
@@ -3595,7 +3595,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A66" s="7" t="s">
         <v>197</v>
       </c>
@@ -3609,7 +3609,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A67" s="7" t="s">
         <v>197</v>
       </c>
@@ -3623,7 +3623,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A68" s="7" t="s">
         <v>197</v>
       </c>
@@ -3637,7 +3637,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A69" s="7" t="s">
         <v>197</v>
       </c>
@@ -3651,7 +3651,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A70" s="7" t="s">
         <v>197</v>
       </c>
@@ -3675,11 +3675,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AB49278-C885-4626-918F-22B9EA08CAD8}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="U1" sqref="U1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3690,22 +3690,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28ADD393-55AB-49FB-9382-D2896E9EB980}">
   <dimension ref="A1:AY4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" zoomScale="112" zoomScaleNormal="128" workbookViewId="0">
+      <selection activeCell="AT4" sqref="AT4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.1328125" customWidth="1"/>
-    <col min="2" max="2" width="10.53125" customWidth="1"/>
-    <col min="11" max="11" width="6.796875" customWidth="1"/>
-    <col min="16" max="16" width="14.53125" bestFit="1" customWidth="1"/>
-    <col min="46" max="47" width="9.796875" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="9.19921875" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="9.796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.08984375" customWidth="1"/>
+    <col min="2" max="2" width="10.54296875" customWidth="1"/>
+    <col min="11" max="11" width="6.81640625" customWidth="1"/>
+    <col min="16" max="16" width="14.54296875" bestFit="1" customWidth="1"/>
+    <col min="46" max="47" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="9.1796875" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="9.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:51" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>45</v>
       </c>
@@ -3860,17 +3860,163 @@
         <v>116</v>
       </c>
     </row>
-    <row r="2" spans="1:51" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="3" spans="1:51" x14ac:dyDescent="0.45">
+      <c r="B2">
+        <v>1655</v>
+      </c>
+      <c r="C2">
+        <f>(17+25)/2</f>
+        <v>21</v>
+      </c>
+      <c r="D2">
+        <v>1.56</v>
+      </c>
+      <c r="E2">
+        <v>0.16</v>
+      </c>
+      <c r="F2">
+        <f>D2/E2</f>
+        <v>9.75</v>
+      </c>
+      <c r="G2">
+        <f>(PI()/4)*(E2*E2)</f>
+        <v>2.0106192982974676E-2</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0.72</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="K2">
+        <f>0.63</f>
+        <v>0.63</v>
+      </c>
+      <c r="L2">
+        <f>(K2-0.04)*2</f>
+        <v>1.18</v>
+      </c>
+      <c r="M2">
+        <v>16.5</v>
+      </c>
+      <c r="N2">
+        <f>0.054/0.24</f>
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="R2">
+        <v>0.1</v>
+      </c>
+      <c r="S2">
+        <f>R2*2</f>
+        <v>0.2</v>
+      </c>
+      <c r="T2">
+        <f>0.75*0.75/R2</f>
+        <v>5.625</v>
+      </c>
+      <c r="U2">
+        <v>1</v>
+      </c>
+      <c r="V2">
+        <v>0</v>
+      </c>
+      <c r="W2">
+        <f>(0.054+0.24)/2</f>
+        <v>0.14699999999999999</v>
+      </c>
+      <c r="X2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="Y2">
+        <v>0</v>
+      </c>
+      <c r="Z2">
+        <v>0</v>
+      </c>
+      <c r="AA2">
+        <v>0</v>
+      </c>
+      <c r="AB2">
+        <v>0</v>
+      </c>
+      <c r="AC2">
+        <v>0</v>
+      </c>
+      <c r="AD2">
+        <v>0</v>
+      </c>
+      <c r="AE2">
+        <v>0</v>
+      </c>
+      <c r="AF2">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="AG2">
+        <f>AF2*2</f>
+        <v>0.104</v>
+      </c>
+      <c r="AH2">
+        <f>(0.4*0.4)/AF2</f>
+        <v>3.0769230769230775</v>
+      </c>
+      <c r="AI2">
+        <v>1</v>
+      </c>
+      <c r="AJ2">
+        <v>0</v>
+      </c>
+      <c r="AK2">
+        <v>0.13</v>
+      </c>
+      <c r="AL2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="AM2">
+        <v>0</v>
+      </c>
+      <c r="AN2">
+        <v>0</v>
+      </c>
+      <c r="AO2">
+        <v>0</v>
+      </c>
+      <c r="AP2">
+        <v>0</v>
+      </c>
+      <c r="AQ2">
+        <v>0</v>
+      </c>
+      <c r="AR2">
+        <v>0</v>
+      </c>
+      <c r="AS2">
+        <v>0</v>
+      </c>
+      <c r="AT2">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="4" spans="1:51" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>200</v>
       </c>
@@ -3889,18 +4035,18 @@
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.796875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="11.796875" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="11.796875" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="9.86328125" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="11.796875" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="11.796875" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="11.796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.81640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="11.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:54" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>45</v>
       </c>
@@ -4064,7 +4210,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:54" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="str">
         <f>Input!A2</f>
         <v>Tempest Model</v>
@@ -4133,7 +4279,7 @@
         <v>1.097</v>
       </c>
       <c r="W2">
-        <f t="shared" ref="W2:W11" si="0">MAX(E2:V2)</f>
+        <f t="shared" ref="W2" si="0">MAX(E2:V2)</f>
         <v>1.1555</v>
       </c>
       <c r="X2">
@@ -4191,7 +4337,7 @@
         <v>6.2429999999999999E-2</v>
       </c>
       <c r="AP2">
-        <f t="shared" ref="AP2:AP11" si="1">MIN(X2:AO2)</f>
+        <f t="shared" ref="AP2" si="1">MIN(X2:AO2)</f>
         <v>8.9800000000000001E-3</v>
       </c>
       <c r="AQ2" t="s">
@@ -4231,13 +4377,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:54" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="str">
         <f>Input!A3</f>
         <v>Student Design 1</v>
       </c>
     </row>
-    <row r="4" spans="1:54" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="str">
         <f>Input!A4</f>
         <v>Student Design 2</v>
@@ -4253,13 +4399,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B37039A-DE36-48A7-B09A-20ABDB8A0C39}">
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+    <sheetView topLeftCell="G1" zoomScale="113" workbookViewId="0">
+      <selection activeCell="Q23" sqref="Q23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="13" t="s">
         <v>101</v>
       </c>
@@ -4270,7 +4416,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2">
         <v>-5</v>
       </c>
@@ -4281,7 +4427,7 @@
         <v>4.4250999999999999E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="2">
         <v>-4</v>
       </c>
@@ -4292,7 +4438,7 @@
         <v>3.3783000000000001E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="2">
         <v>-3</v>
       </c>
@@ -4303,7 +4449,7 @@
         <v>2.8627E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="2">
         <v>-2</v>
       </c>
@@ -4314,7 +4460,7 @@
         <v>2.5864000000000002E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="2">
         <v>-1</v>
       </c>
@@ -4325,7 +4471,7 @@
         <v>2.4643000000000002E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="2">
         <v>0</v>
       </c>
@@ -4336,7 +4482,7 @@
         <v>2.5099E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="2">
         <v>1</v>
       </c>
@@ -4347,7 +4493,7 @@
         <v>2.5635000000000002E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="2">
         <v>2</v>
       </c>
@@ -4358,7 +4504,7 @@
         <v>2.7660000000000001E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="2">
         <v>3</v>
       </c>
@@ -4369,7 +4515,7 @@
         <v>3.0676999999999999E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" s="2">
         <v>4</v>
       </c>
@@ -4380,7 +4526,7 @@
         <v>3.4854999999999997E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="2">
         <v>5</v>
       </c>
@@ -4391,7 +4537,7 @@
         <v>4.0403000000000001E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="2">
         <v>6</v>
       </c>
@@ -4402,7 +4548,7 @@
         <v>4.759E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" s="2">
         <v>7</v>
       </c>
@@ -4413,7 +4559,7 @@
         <v>5.7107999999999999E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A15" s="2">
         <v>8</v>
       </c>
@@ -4424,7 +4570,7 @@
         <v>7.0132E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16" s="2">
         <v>9</v>
       </c>
@@ -4435,7 +4581,7 @@
         <v>9.0921000000000002E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A17" s="2">
         <v>10</v>
       </c>
@@ -4446,7 +4592,7 @@
         <v>0.11193</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A18" s="2">
         <v>11</v>
       </c>
@@ -4457,7 +4603,7 @@
         <v>0.13253999999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A19" s="2">
         <v>12</v>
       </c>
@@ -4468,7 +4614,7 @@
         <v>0.15645000000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="E21" s="5"/>
       <c r="F21" s="15"/>
     </row>
@@ -4486,16 +4632,16 @@
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.46484375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.1328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.46484375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.08984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.453125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="12" t="s">
         <v>104</v>
       </c>
@@ -4512,7 +4658,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="8">
         <v>20.8</v>
       </c>
@@ -4529,7 +4675,7 @@
         <v>96.1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="8" t="s">
         <v>108</v>
       </c>

--- a/2804-Model/Design Input File.xlsx
+++ b/2804-Model/Design Input File.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bloss\OneDrive\Documents\MATLAB\ASEN2804\2804-Model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49821B44-7448-41FD-98CB-C1F42AF7C377}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA098DD2-9498-4BEC-9D12-3BC6078854D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="13020" activeTab="2" xr2:uid="{904FC4B5-3CDE-421B-8E98-23A2C72E8C1E}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="13020" firstSheet="1" activeTab="2" xr2:uid="{904FC4B5-3CDE-421B-8E98-23A2C72E8C1E}"/>
   </bookViews>
   <sheets>
     <sheet name="Variable Reference" sheetId="8" r:id="rId1"/>
@@ -1308,7 +1308,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="199">
   <si>
     <t>Length_f</t>
   </si>
@@ -1905,12 +1905,6 @@
   </si>
   <si>
     <t>Tempest Model</t>
-  </si>
-  <si>
-    <t>Student Design 1</t>
-  </si>
-  <si>
-    <t>Student Design 2</t>
   </si>
 </sst>
 </file>
@@ -2287,6 +2281,76 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>594629</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>8703</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>596429</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>10143</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="2" name="Ink 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{60015733-7E18-F4D0-B171-EC5C5AE4A38D}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="26062665" y="6721560"/>
+            <a:ext cx="1800" cy="1440"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="2" name="Ink 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{60015733-7E18-F4D0-B171-EC5C5AE4A38D}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="26053665" y="6712560"/>
+              <a:ext cx="19440" cy="19080"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
@@ -2370,6 +2434,37 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/ink/ink1.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2024-01-29T19:25:20.200"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">0 0 96 0 0,'2'2'0'0'0,"1"-1"0"0"0,-3-2 0 0 0,0-1 0 0 0</inkml:trace>
+</inkml:ink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3675,7 +3770,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AB49278-C885-4626-918F-22B9EA08CAD8}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="K16" zoomScale="134" workbookViewId="0">
       <selection activeCell="U1" sqref="U1"/>
     </sheetView>
   </sheetViews>
@@ -3688,10 +3783,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28ADD393-55AB-49FB-9382-D2896E9EB980}">
-  <dimension ref="A1:AY4"/>
+  <dimension ref="A1:AY2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="112" zoomScaleNormal="128" workbookViewId="0">
-      <selection activeCell="AT4" sqref="AT4"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4011,19 +4106,10 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="3" spans="1:51" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="4" spans="1:51" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>200</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -4031,8 +4117,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{538960B4-04F0-4DA1-BF31-3569558CC234}">
   <dimension ref="A1:BB4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView topLeftCell="Y1" workbookViewId="0">
+      <selection activeCell="AQ21" sqref="AQ21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4378,15 +4464,15 @@
       </c>
     </row>
     <row r="3" spans="1:54" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="str">
+      <c r="A3" s="1">
         <f>Input!A3</f>
-        <v>Student Design 1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:54" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="str">
+      <c r="A4" s="1">
         <f>Input!A4</f>
-        <v>Student Design 2</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/2804-Model/Design Input File.xlsx
+++ b/2804-Model/Design Input File.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bloss\OneDrive\Documents\MATLAB\ASEN2804\2804-Model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA098DD2-9498-4BEC-9D12-3BC6078854D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A48526C-A589-471C-9DB8-27AF6CCD2CE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="13020" firstSheet="1" activeTab="2" xr2:uid="{904FC4B5-3CDE-421B-8E98-23A2C72E8C1E}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="13020" activeTab="3" xr2:uid="{904FC4B5-3CDE-421B-8E98-23A2C72E8C1E}"/>
   </bookViews>
   <sheets>
     <sheet name="Variable Reference" sheetId="8" r:id="rId1"/>
@@ -2766,8 +2766,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{880E5C65-4E84-4A1F-BBC6-77D4F9B2D0D9}">
   <dimension ref="A1:D70"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="A59" sqref="A59:XFD59"/>
+    <sheetView topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="B61" sqref="B61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3770,7 +3770,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AB49278-C885-4626-918F-22B9EA08CAD8}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="K16" zoomScale="134" workbookViewId="0">
+    <sheetView topLeftCell="A15" zoomScale="119" workbookViewId="0">
       <selection activeCell="U1" sqref="U1"/>
     </sheetView>
   </sheetViews>
@@ -3785,8 +3785,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28ADD393-55AB-49FB-9382-D2896E9EB980}">
   <dimension ref="A1:AY2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="112" zoomScaleNormal="128" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView zoomScale="112" zoomScaleNormal="128" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4115,10 +4115,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{538960B4-04F0-4DA1-BF31-3569558CC234}">
-  <dimension ref="A1:BB4"/>
+  <dimension ref="A1:BB2"/>
   <sheetViews>
-    <sheetView topLeftCell="Y1" workbookViewId="0">
-      <selection activeCell="AQ21" sqref="AQ21"/>
+    <sheetView tabSelected="1" zoomScale="267" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4460,18 +4460,6 @@
         <v>0</v>
       </c>
       <c r="BB2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:54" x14ac:dyDescent="0.35">
-      <c r="A3" s="1">
-        <f>Input!A3</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:54" x14ac:dyDescent="0.35">
-      <c r="A4" s="1">
-        <f>Input!A4</f>
         <v>0</v>
       </c>
     </row>
